--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613810</v>
+        <v>111613807</v>
       </c>
       <c r="B27" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538344.4096152738</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R27" t="n">
-        <v>7007238.37475112</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3612,6 +3612,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3620,6 +3625,21 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3756,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613808</v>
+        <v>111613799</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3768,25 +3788,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3796,10 +3816,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538307.035750575</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R29" t="n">
-        <v>7007187.820436972</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4123,10 +4143,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613798</v>
+        <v>111613809</v>
       </c>
       <c r="B32" t="n">
-        <v>98446</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4139,34 +4159,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222771</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538561.8131536954</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R32" t="n">
-        <v>7007128.099433615</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4211,12 +4234,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4239,10 +4268,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613820</v>
+        <v>111613814</v>
       </c>
       <c r="B33" t="n">
-        <v>98446</v>
+        <v>96253</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4255,16 +4284,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222771</v>
+        <v>504</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4279,10 +4308,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538560.8875660666</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R33" t="n">
-        <v>7007129.894231001</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4355,10 +4384,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613813</v>
+        <v>111613795</v>
       </c>
       <c r="B34" t="n">
-        <v>96265</v>
+        <v>78107</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4367,25 +4396,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219790</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4395,10 +4424,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538476.5867244676</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R34" t="n">
-        <v>7007147.850285683</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4471,10 +4500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613807</v>
+        <v>111613810</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4487,21 +4516,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4511,10 +4540,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538415.4553716886</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R35" t="n">
-        <v>7007080.306102326</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4559,11 +4588,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4572,21 +4596,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4607,10 +4616,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613848</v>
+        <v>111613798</v>
       </c>
       <c r="B36" t="n">
-        <v>78081</v>
+        <v>98446</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4619,25 +4628,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>229821</v>
+        <v>222771</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4647,10 +4656,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538327.8784058518</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R36" t="n">
-        <v>7007221.926460785</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4723,10 +4732,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613799</v>
+        <v>111613848</v>
       </c>
       <c r="B37" t="n">
-        <v>98446</v>
+        <v>78081</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4735,25 +4744,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222771</v>
+        <v>229821</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4763,10 +4772,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538290.3007555312</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R37" t="n">
-        <v>7007188.524916076</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4839,10 +4848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613812</v>
+        <v>111613820</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4851,25 +4860,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4879,10 +4888,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538523.1546874978</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R38" t="n">
-        <v>7007185.424751109</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4955,10 +4964,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613809</v>
+        <v>111613826</v>
       </c>
       <c r="B39" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4967,41 +4976,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538305.3234170083</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R39" t="n">
-        <v>7007255.968756862</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5046,20 +5052,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5080,10 +5095,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613826</v>
+        <v>111613813</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5092,25 +5107,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5120,10 +5135,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538295.2090174844</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R40" t="n">
-        <v>7007117.704292206</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5176,21 +5191,6 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5211,10 +5211,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613795</v>
+        <v>111613812</v>
       </c>
       <c r="B41" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5223,25 +5223,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5251,10 +5251,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538304.4087143966</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R41" t="n">
-        <v>7007256.860795334</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613842</v>
+        <v>111613808</v>
       </c>
       <c r="B42" t="n">
-        <v>5426</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5343,43 +5343,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>101410</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538311.0181604966</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R42" t="n">
-        <v>7007195.090902855</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5430,7 +5421,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5453,10 +5443,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613814</v>
+        <v>111613842</v>
       </c>
       <c r="B43" t="n">
-        <v>96253</v>
+        <v>5426</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5465,38 +5455,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>504</v>
+        <v>101410</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538476.5867244676</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R43" t="n">
-        <v>7007147.850285683</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5547,6 +5546,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684835</v>
+        <v>111684843</v>
       </c>
       <c r="B44" t="n">
-        <v>85266</v>
+        <v>90332</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>249228</v>
+        <v>4769</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538475.2310466716</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R44" t="n">
-        <v>7007185.7564558</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5657,18 +5657,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5691,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684868</v>
+        <v>111684880</v>
       </c>
       <c r="B45" t="n">
-        <v>90666</v>
+        <v>86223</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5703,25 +5697,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5731,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538403.0389924766</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R45" t="n">
-        <v>7007021.918571183</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5807,10 +5801,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684865</v>
+        <v>111684892</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>96253</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5819,25 +5813,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>504</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5847,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538377.6302402292</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R46" t="n">
-        <v>7007067.666827729</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5923,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684843</v>
+        <v>111684866</v>
       </c>
       <c r="B47" t="n">
-        <v>90332</v>
+        <v>90678</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5939,21 +5933,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4769</v>
+        <v>4366</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5963,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538471.1952294012</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R47" t="n">
-        <v>7007182.999663028</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6039,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684896</v>
+        <v>111684838</v>
       </c>
       <c r="B48" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6055,21 +6049,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6079,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538349.3816246447</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R48" t="n">
-        <v>7007238.433779362</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6155,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684878</v>
+        <v>111684835</v>
       </c>
       <c r="B49" t="n">
-        <v>86223</v>
+        <v>85266</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6167,25 +6161,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4412</v>
+        <v>249228</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6195,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538418.4510020384</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R49" t="n">
-        <v>7007018.490022517</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6243,12 +6237,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684853</v>
+        <v>111684896</v>
       </c>
       <c r="B50" t="n">
-        <v>96253</v>
+        <v>90710</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6283,25 +6283,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>504</v>
+        <v>5449</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538429.6936389046</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R50" t="n">
-        <v>7007061.513751107</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684854</v>
+        <v>111684868</v>
       </c>
       <c r="B51" t="n">
-        <v>96346</v>
+        <v>90666</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6399,25 +6399,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>620</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538429.6936389046</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R51" t="n">
-        <v>7007061.513751107</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684869</v>
+        <v>111684865</v>
       </c>
       <c r="B52" t="n">
         <v>78578</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538403.0389924766</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R52" t="n">
-        <v>7007021.918571183</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684892</v>
+        <v>111684869</v>
       </c>
       <c r="B53" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6631,25 +6631,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538447.0264229371</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R53" t="n">
-        <v>7007048.627327502</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684880</v>
+        <v>111684878</v>
       </c>
       <c r="B54" t="n">
         <v>86223</v>
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538506.4196058889</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R54" t="n">
-        <v>7007072.359808625</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684866</v>
+        <v>111684853</v>
       </c>
       <c r="B55" t="n">
-        <v>90678</v>
+        <v>96253</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6867,21 +6867,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4366</v>
+        <v>504</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538377.6302402292</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R55" t="n">
-        <v>7007067.666827729</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684838</v>
+        <v>111684854</v>
       </c>
       <c r="B56" t="n">
-        <v>90682</v>
+        <v>96346</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6983,21 +6983,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2059</v>
+        <v>620</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538320.8926943651</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R56" t="n">
-        <v>7007201.076903798</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613807</v>
+        <v>111613848</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>78081</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538415.4553716886</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R27" t="n">
-        <v>7007080.306102326</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3612,11 +3612,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3625,21 +3620,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3660,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613801</v>
+        <v>111613842</v>
       </c>
       <c r="B28" t="n">
-        <v>96265</v>
+        <v>5426</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3672,38 +3652,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219790</v>
+        <v>101410</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538267.3285722481</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R28" t="n">
-        <v>7007181.480884125</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3754,6 +3743,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3776,10 +3766,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613799</v>
+        <v>111613812</v>
       </c>
       <c r="B29" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3788,25 +3778,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3816,10 +3806,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538290.3007555312</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R29" t="n">
-        <v>7007188.524916076</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3892,10 +3882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613835</v>
+        <v>111613807</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3904,41 +3894,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538300.9455503088</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R30" t="n">
-        <v>7007205.806269458</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3985,7 +3972,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Fruktkroppar från förra året.</t>
+          <t>På grov sälg</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3994,9 +3981,23 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4017,10 +4018,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613779</v>
+        <v>111613799</v>
       </c>
       <c r="B31" t="n">
-        <v>5426</v>
+        <v>98446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4029,47 +4030,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>101410</v>
+        <v>222771</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538391.4391364089</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R31" t="n">
-        <v>7007084.986719663</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4120,7 +4112,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4143,10 +4134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613809</v>
+        <v>111613820</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>98446</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4159,37 +4150,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>222771</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538305.3234170083</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R32" t="n">
-        <v>7007255.968756862</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4234,18 +4222,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4268,10 +4250,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613814</v>
+        <v>111613801</v>
       </c>
       <c r="B33" t="n">
-        <v>96253</v>
+        <v>96265</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4284,21 +4266,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>504</v>
+        <v>219790</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4308,10 +4290,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538476.5867244676</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R33" t="n">
-        <v>7007147.850285683</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4384,10 +4366,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613795</v>
+        <v>111613809</v>
       </c>
       <c r="B34" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4396,38 +4378,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538304.4087143966</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R34" t="n">
-        <v>7007256.860795334</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4472,12 +4457,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4500,10 +4491,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613810</v>
+        <v>111613779</v>
       </c>
       <c r="B35" t="n">
-        <v>77186</v>
+        <v>5426</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4516,34 +4507,43 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>101410</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538344.4096152738</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R35" t="n">
-        <v>7007238.37475112</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4594,6 +4594,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4616,10 +4617,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613798</v>
+        <v>111613808</v>
       </c>
       <c r="B36" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4628,25 +4629,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4656,10 +4657,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538561.8131536954</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R36" t="n">
-        <v>7007128.099433615</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4732,10 +4733,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613848</v>
+        <v>111613813</v>
       </c>
       <c r="B37" t="n">
-        <v>78081</v>
+        <v>96265</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4744,25 +4745,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>229821</v>
+        <v>219790</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4772,10 +4773,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538327.8784058518</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R37" t="n">
-        <v>7007221.926460785</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4848,10 +4849,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613820</v>
+        <v>111613810</v>
       </c>
       <c r="B38" t="n">
-        <v>98446</v>
+        <v>77186</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4860,25 +4861,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222771</v>
+        <v>353</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4888,10 +4889,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538560.8875660666</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R38" t="n">
-        <v>7007129.894231001</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4964,10 +4965,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613826</v>
+        <v>111613795</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4980,21 +4981,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5004,10 +5005,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538295.2090174844</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R39" t="n">
-        <v>7007117.704292206</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5060,21 +5061,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5095,10 +5081,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613813</v>
+        <v>111613798</v>
       </c>
       <c r="B40" t="n">
-        <v>96265</v>
+        <v>98446</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5111,21 +5097,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219790</v>
+        <v>222771</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5135,10 +5121,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538476.5867244676</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R40" t="n">
-        <v>7007147.850285683</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5211,10 +5197,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613812</v>
+        <v>111613814</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>96253</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5223,25 +5209,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>504</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5251,10 +5237,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538523.1546874978</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R41" t="n">
-        <v>7007185.424751109</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5327,7 +5313,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613808</v>
+        <v>111613826</v>
       </c>
       <c r="B42" t="n">
         <v>78578</v>
@@ -5367,10 +5353,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538307.035750575</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R42" t="n">
-        <v>7007187.820436972</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5423,6 +5409,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5443,10 +5444,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613842</v>
+        <v>111613835</v>
       </c>
       <c r="B43" t="n">
-        <v>5426</v>
+        <v>90666</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5455,36 +5456,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>101410</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5492,10 +5487,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538311.0181604966</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R43" t="n">
-        <v>7007195.090902855</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5538,6 +5533,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684843</v>
+        <v>111684865</v>
       </c>
       <c r="B44" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5581,25 +5581,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538471.1952294012</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R44" t="n">
-        <v>7007182.999663028</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684880</v>
+        <v>111684843</v>
       </c>
       <c r="B45" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538506.4196058889</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R45" t="n">
-        <v>7007072.359808625</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684892</v>
+        <v>111684869</v>
       </c>
       <c r="B46" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5813,25 +5813,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538447.0264229371</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R46" t="n">
-        <v>7007048.627327502</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684866</v>
+        <v>111684838</v>
       </c>
       <c r="B47" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5929,25 +5929,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538377.6302402292</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R47" t="n">
-        <v>7007067.666827729</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684838</v>
+        <v>111684892</v>
       </c>
       <c r="B48" t="n">
-        <v>90682</v>
+        <v>96253</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6045,25 +6045,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2059</v>
+        <v>504</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538320.8926943651</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R48" t="n">
-        <v>7007201.076903798</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684835</v>
+        <v>111684866</v>
       </c>
       <c r="B49" t="n">
-        <v>85266</v>
+        <v>90678</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6165,21 +6165,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>249228</v>
+        <v>4366</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538475.2310466716</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R49" t="n">
-        <v>7007185.7564558</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6237,18 +6237,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6503,10 +6497,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684865</v>
+        <v>111684878</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>86223</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6519,21 +6513,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6537,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538377.6302402292</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R52" t="n">
-        <v>7007067.666827729</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6613,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684869</v>
+        <v>111684854</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,21 +6629,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6653,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538403.0389924766</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R53" t="n">
-        <v>7007021.918571183</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,7 +6729,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684878</v>
+        <v>111684880</v>
       </c>
       <c r="B54" t="n">
         <v>86223</v>
@@ -6775,10 +6769,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538418.4510020384</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R54" t="n">
-        <v>7007018.490022517</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6967,10 +6961,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684854</v>
+        <v>111684835</v>
       </c>
       <c r="B56" t="n">
-        <v>96346</v>
+        <v>85266</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6979,25 +6973,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>620</v>
+        <v>249228</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7001,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538429.6936389046</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R56" t="n">
-        <v>7007061.513751107</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7055,12 +7049,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613848</v>
+        <v>111613812</v>
       </c>
       <c r="B27" t="n">
-        <v>78081</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3536,25 +3536,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538327.8784058518</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R27" t="n">
-        <v>7007221.926460785</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613842</v>
+        <v>111613809</v>
       </c>
       <c r="B28" t="n">
-        <v>5426</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3652,36 +3652,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101410</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3689,10 +3683,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538311.0181604966</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R28" t="n">
-        <v>7007195.090902855</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3735,6 +3729,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3766,10 +3765,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613812</v>
+        <v>111613848</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3778,25 +3777,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3806,10 +3805,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538523.1546874978</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R29" t="n">
-        <v>7007185.424751109</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3882,10 +3881,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613807</v>
+        <v>111613835</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3894,38 +3893,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538415.4553716886</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R30" t="n">
-        <v>7007080.306102326</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3972,7 +3974,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På grov sälg</t>
+          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3981,23 +3983,9 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4018,10 +4006,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613799</v>
+        <v>111613801</v>
       </c>
       <c r="B31" t="n">
-        <v>98446</v>
+        <v>96265</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4034,21 +4022,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222771</v>
+        <v>219790</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4058,10 +4046,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538290.3007555312</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R31" t="n">
-        <v>7007188.524916076</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4134,7 +4122,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613820</v>
+        <v>111613799</v>
       </c>
       <c r="B32" t="n">
         <v>98446</v>
@@ -4174,10 +4162,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538560.8875660666</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R32" t="n">
-        <v>7007129.894231001</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4250,7 +4238,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613801</v>
+        <v>111613813</v>
       </c>
       <c r="B33" t="n">
         <v>96265</v>
@@ -4290,10 +4278,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538267.3285722481</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R33" t="n">
-        <v>7007181.480884125</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4366,10 +4354,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613809</v>
+        <v>111613826</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4378,41 +4366,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538305.3234170083</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R34" t="n">
-        <v>7007255.968756862</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4457,20 +4442,29 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4491,7 +4485,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613779</v>
+        <v>111613842</v>
       </c>
       <c r="B35" t="n">
         <v>5426</v>
@@ -4540,10 +4534,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538391.4391364089</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R35" t="n">
-        <v>7007084.986719663</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4617,10 +4611,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613808</v>
+        <v>111613810</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4633,21 +4627,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4657,10 +4651,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538307.035750575</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R36" t="n">
-        <v>7007187.820436972</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4733,10 +4727,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613813</v>
+        <v>111613807</v>
       </c>
       <c r="B37" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4745,25 +4739,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4773,10 +4767,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538476.5867244676</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R37" t="n">
-        <v>7007147.850285683</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4821,6 +4815,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -4829,6 +4828,21 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4849,10 +4863,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613810</v>
+        <v>111613820</v>
       </c>
       <c r="B38" t="n">
-        <v>77186</v>
+        <v>98446</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4861,25 +4875,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>353</v>
+        <v>222771</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4889,10 +4903,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538344.4096152738</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R38" t="n">
-        <v>7007238.37475112</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4965,10 +4979,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613795</v>
+        <v>111613798</v>
       </c>
       <c r="B39" t="n">
-        <v>78107</v>
+        <v>98446</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4977,25 +4991,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6453</v>
+        <v>222771</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5005,10 +5019,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538304.4087143966</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R39" t="n">
-        <v>7007256.860795334</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5081,10 +5095,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613798</v>
+        <v>111613814</v>
       </c>
       <c r="B40" t="n">
-        <v>98446</v>
+        <v>96253</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5097,16 +5111,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222771</v>
+        <v>504</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5121,10 +5135,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538561.8131536954</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R40" t="n">
-        <v>7007128.099433615</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5197,10 +5211,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613814</v>
+        <v>111613779</v>
       </c>
       <c r="B41" t="n">
-        <v>96253</v>
+        <v>5426</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5209,38 +5223,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>504</v>
+        <v>101410</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538476.5867244676</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R41" t="n">
-        <v>7007147.850285683</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5291,6 +5314,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5313,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613826</v>
+        <v>111613795</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5329,21 +5353,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5353,10 +5377,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538295.2090174844</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R42" t="n">
-        <v>7007117.704292206</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5409,21 +5433,6 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5444,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613835</v>
+        <v>111613808</v>
       </c>
       <c r="B43" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5456,41 +5465,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538300.9455503088</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R43" t="n">
-        <v>7007205.806269458</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5535,18 +5541,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684865</v>
+        <v>111684854</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538377.6302402292</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R44" t="n">
-        <v>7007067.666827729</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684843</v>
+        <v>111684865</v>
       </c>
       <c r="B45" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538471.1952294012</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R45" t="n">
-        <v>7007182.999663028</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684869</v>
+        <v>111684838</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>90682</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>2059</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538403.0389924766</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R46" t="n">
-        <v>7007021.918571183</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684838</v>
+        <v>111684896</v>
       </c>
       <c r="B47" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5933,21 +5933,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538320.8926943651</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R47" t="n">
-        <v>7007201.076903798</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684866</v>
+        <v>111684843</v>
       </c>
       <c r="B49" t="n">
-        <v>90678</v>
+        <v>90332</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6165,21 +6165,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4366</v>
+        <v>4769</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538377.6302402292</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R49" t="n">
-        <v>7007067.666827729</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684896</v>
+        <v>111684835</v>
       </c>
       <c r="B50" t="n">
-        <v>90710</v>
+        <v>85266</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6277,25 +6277,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5449</v>
+        <v>249228</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538349.3816246447</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R50" t="n">
-        <v>7007238.433779362</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6353,12 +6353,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6381,10 +6387,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684868</v>
+        <v>111684869</v>
       </c>
       <c r="B51" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6393,25 +6399,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6497,7 +6503,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684878</v>
+        <v>111684880</v>
       </c>
       <c r="B52" t="n">
         <v>86223</v>
@@ -6537,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538418.4510020384</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R52" t="n">
-        <v>7007018.490022517</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6613,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684854</v>
+        <v>111684878</v>
       </c>
       <c r="B53" t="n">
-        <v>96346</v>
+        <v>86223</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6629,21 +6635,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>620</v>
+        <v>4412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6653,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538429.6936389046</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R53" t="n">
-        <v>7007061.513751107</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6729,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684880</v>
+        <v>111684868</v>
       </c>
       <c r="B54" t="n">
-        <v>86223</v>
+        <v>90666</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6741,25 +6747,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6769,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538506.4196058889</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R54" t="n">
-        <v>7007072.359808625</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6961,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684835</v>
+        <v>111684866</v>
       </c>
       <c r="B56" t="n">
-        <v>85266</v>
+        <v>90678</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6977,21 +6983,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>249228</v>
+        <v>4366</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7001,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538475.2310466716</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R56" t="n">
-        <v>7007185.7564558</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7049,18 +7055,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613812</v>
+        <v>111613848</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3536,25 +3536,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538523.1546874978</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R27" t="n">
-        <v>7007185.424751109</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613809</v>
+        <v>111613820</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>98446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3656,37 +3656,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>222771</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538305.3234170083</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R28" t="n">
-        <v>7007255.968756862</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3731,18 +3728,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3765,10 +3756,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613848</v>
+        <v>111613810</v>
       </c>
       <c r="B29" t="n">
-        <v>78081</v>
+        <v>77186</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,21 +3772,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3805,10 +3796,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538327.8784058518</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R29" t="n">
-        <v>7007221.926460785</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4006,10 +3997,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613801</v>
+        <v>111613842</v>
       </c>
       <c r="B31" t="n">
-        <v>96265</v>
+        <v>5426</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,38 +4009,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>219790</v>
+        <v>101410</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538267.3285722481</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R31" t="n">
-        <v>7007181.480884125</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4100,6 +4100,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4122,10 +4123,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613799</v>
+        <v>111613814</v>
       </c>
       <c r="B32" t="n">
-        <v>98446</v>
+        <v>96253</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4138,16 +4139,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222771</v>
+        <v>504</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4162,10 +4163,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538290.3007555312</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R32" t="n">
-        <v>7007188.524916076</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4354,10 +4355,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613826</v>
+        <v>111613779</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>5426</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4370,34 +4371,43 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>101410</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538295.2090174844</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R34" t="n">
-        <v>7007117.704292206</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4448,23 +4458,9 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4485,10 +4481,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613842</v>
+        <v>111613801</v>
       </c>
       <c r="B35" t="n">
-        <v>5426</v>
+        <v>96265</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4497,47 +4493,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>101410</v>
+        <v>219790</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538311.0181604966</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R35" t="n">
-        <v>7007195.090902855</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4588,7 +4575,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4611,10 +4597,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613810</v>
+        <v>111613798</v>
       </c>
       <c r="B36" t="n">
-        <v>77186</v>
+        <v>98446</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4623,25 +4609,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>353</v>
+        <v>222771</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4651,10 +4637,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538344.4096152738</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R36" t="n">
-        <v>7007238.37475112</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4727,10 +4713,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613807</v>
+        <v>111613812</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4739,25 +4725,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4767,10 +4753,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538415.4553716886</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R37" t="n">
-        <v>7007080.306102326</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4815,11 +4801,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -4828,21 +4809,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4863,10 +4829,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613820</v>
+        <v>111613826</v>
       </c>
       <c r="B38" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4875,25 +4841,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4903,10 +4869,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538560.8875660666</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R38" t="n">
-        <v>7007129.894231001</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4959,6 +4925,21 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4979,10 +4960,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613798</v>
+        <v>111613808</v>
       </c>
       <c r="B39" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4991,25 +4972,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5019,10 +5000,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538561.8131536954</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R39" t="n">
-        <v>7007128.099433615</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5095,10 +5076,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613814</v>
+        <v>111613807</v>
       </c>
       <c r="B40" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5107,25 +5088,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5135,10 +5116,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538476.5867244676</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R40" t="n">
-        <v>7007147.850285683</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5183,6 +5164,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5191,6 +5177,21 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5211,10 +5212,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613779</v>
+        <v>111613809</v>
       </c>
       <c r="B41" t="n">
-        <v>5426</v>
+        <v>90666</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5223,36 +5224,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>101410</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5260,10 +5255,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538391.4391364089</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R41" t="n">
-        <v>7007084.986719663</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5306,6 +5301,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5337,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613795</v>
+        <v>111613799</v>
       </c>
       <c r="B42" t="n">
-        <v>78107</v>
+        <v>98446</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5349,25 +5349,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6453</v>
+        <v>222771</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538304.4087143966</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R42" t="n">
-        <v>7007256.860795334</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613808</v>
+        <v>111613795</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5469,21 +5469,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538307.035750575</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R43" t="n">
-        <v>7007187.820436972</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684854</v>
+        <v>111684838</v>
       </c>
       <c r="B44" t="n">
-        <v>96346</v>
+        <v>90682</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>620</v>
+        <v>2059</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538429.6936389046</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R44" t="n">
-        <v>7007061.513751107</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684838</v>
+        <v>111684878</v>
       </c>
       <c r="B46" t="n">
-        <v>90682</v>
+        <v>86223</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2059</v>
+        <v>4412</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538320.8926943651</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R46" t="n">
-        <v>7007201.076903798</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684896</v>
+        <v>111684880</v>
       </c>
       <c r="B47" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5933,21 +5933,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538349.3816246447</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R47" t="n">
-        <v>7007238.433779362</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684843</v>
+        <v>111684853</v>
       </c>
       <c r="B49" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6165,21 +6165,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538471.1952294012</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R49" t="n">
-        <v>7007182.999663028</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684835</v>
+        <v>111684868</v>
       </c>
       <c r="B50" t="n">
-        <v>85266</v>
+        <v>90666</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6281,21 +6281,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>249228</v>
+        <v>4364</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538475.2310466716</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R50" t="n">
-        <v>7007185.7564558</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6353,18 +6353,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6387,10 +6381,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684869</v>
+        <v>111684843</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6399,25 +6393,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6427,10 +6421,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538403.0389924766</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R51" t="n">
-        <v>7007021.918571183</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6503,10 +6497,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684880</v>
+        <v>111684854</v>
       </c>
       <c r="B52" t="n">
-        <v>86223</v>
+        <v>96346</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6519,21 +6513,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4412</v>
+        <v>620</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6537,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538506.4196058889</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R52" t="n">
-        <v>7007072.359808625</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6613,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684878</v>
+        <v>111684869</v>
       </c>
       <c r="B53" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,21 +6629,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6653,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538418.4510020384</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R53" t="n">
-        <v>7007018.490022517</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,10 +6729,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684868</v>
+        <v>111684896</v>
       </c>
       <c r="B54" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6747,25 +6741,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6775,10 +6769,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538403.0389924766</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R54" t="n">
-        <v>7007021.918571183</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6845,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684853</v>
+        <v>111684866</v>
       </c>
       <c r="B55" t="n">
-        <v>96253</v>
+        <v>90678</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6867,21 +6861,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>504</v>
+        <v>4366</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6885,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538429.6936389046</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R55" t="n">
-        <v>7007061.513751107</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6961,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684866</v>
+        <v>111684835</v>
       </c>
       <c r="B56" t="n">
-        <v>90678</v>
+        <v>85266</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6983,21 +6977,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4366</v>
+        <v>249228</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7001,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538377.6302402292</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R56" t="n">
-        <v>7007067.666827729</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7055,12 +7049,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613848</v>
+        <v>111613808</v>
       </c>
       <c r="B27" t="n">
-        <v>78081</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538327.8784058518</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R27" t="n">
-        <v>7007221.926460785</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613820</v>
+        <v>111613807</v>
       </c>
       <c r="B28" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3652,25 +3652,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3680,10 +3680,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538560.8875660666</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R28" t="n">
-        <v>7007129.894231001</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3728,6 +3728,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3736,6 +3741,21 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3756,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613810</v>
+        <v>111613842</v>
       </c>
       <c r="B29" t="n">
-        <v>77186</v>
+        <v>5426</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3772,34 +3792,43 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>353</v>
+        <v>101410</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538344.4096152738</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R29" t="n">
-        <v>7007238.37475112</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3850,6 +3879,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3872,10 +3902,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613835</v>
+        <v>111613812</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3884,41 +3914,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538300.9455503088</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R30" t="n">
-        <v>7007205.806269458</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3963,18 +3990,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3997,10 +4018,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613842</v>
+        <v>111613826</v>
       </c>
       <c r="B31" t="n">
-        <v>5426</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4013,43 +4034,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>101410</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538311.0181604966</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R31" t="n">
-        <v>7007195.090902855</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4100,9 +4112,23 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4123,10 +4149,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613814</v>
+        <v>111613810</v>
       </c>
       <c r="B32" t="n">
-        <v>96253</v>
+        <v>77186</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4135,25 +4161,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>504</v>
+        <v>353</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4163,10 +4189,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538476.5867244676</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R32" t="n">
-        <v>7007147.850285683</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4239,10 +4265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613813</v>
+        <v>111613795</v>
       </c>
       <c r="B33" t="n">
-        <v>96265</v>
+        <v>78107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4251,25 +4277,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219790</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4279,10 +4305,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538476.5867244676</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R33" t="n">
-        <v>7007147.850285683</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4355,10 +4381,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613779</v>
+        <v>111613809</v>
       </c>
       <c r="B34" t="n">
-        <v>5426</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4367,36 +4393,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>101410</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4404,10 +4424,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538391.4391364089</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R34" t="n">
-        <v>7007084.986719663</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4450,6 +4470,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4481,10 +4506,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613801</v>
+        <v>111613820</v>
       </c>
       <c r="B35" t="n">
-        <v>96265</v>
+        <v>98446</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4497,21 +4522,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219790</v>
+        <v>222771</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4521,10 +4546,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538267.3285722481</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R35" t="n">
-        <v>7007181.480884125</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4597,10 +4622,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613798</v>
+        <v>111613835</v>
       </c>
       <c r="B36" t="n">
-        <v>98446</v>
+        <v>90666</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4613,34 +4638,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222771</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538561.8131536954</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R36" t="n">
-        <v>7007128.099433615</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4685,12 +4713,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4713,10 +4747,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613812</v>
+        <v>111613814</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>96253</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4725,25 +4759,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>504</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4753,10 +4787,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538523.1546874978</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R37" t="n">
-        <v>7007185.424751109</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4829,10 +4863,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613826</v>
+        <v>111613801</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4841,25 +4875,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4869,10 +4903,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538295.2090174844</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R38" t="n">
-        <v>7007117.704292206</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4925,21 +4959,6 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4960,10 +4979,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613808</v>
+        <v>111613798</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4972,25 +4991,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5000,10 +5019,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538307.035750575</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R39" t="n">
-        <v>7007187.820436972</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5076,10 +5095,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613807</v>
+        <v>111613848</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>78081</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5092,21 +5111,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>229821</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5116,10 +5135,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538415.4553716886</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R40" t="n">
-        <v>7007080.306102326</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5164,11 +5183,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5177,21 +5191,6 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5212,10 +5211,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613809</v>
+        <v>111613779</v>
       </c>
       <c r="B41" t="n">
-        <v>90666</v>
+        <v>5426</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5224,30 +5223,36 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>101410</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5255,10 +5260,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538305.3234170083</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R41" t="n">
-        <v>7007255.968756862</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5301,11 +5306,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5453,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613795</v>
+        <v>111613813</v>
       </c>
       <c r="B43" t="n">
-        <v>78107</v>
+        <v>96265</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5465,25 +5465,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6453</v>
+        <v>219790</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538304.4087143966</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R43" t="n">
-        <v>7007256.860795334</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684838</v>
+        <v>111684896</v>
       </c>
       <c r="B44" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538320.8926943651</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R44" t="n">
-        <v>7007201.076903798</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684865</v>
+        <v>111684854</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5701,21 +5701,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538377.6302402292</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R45" t="n">
-        <v>7007067.666827729</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684878</v>
+        <v>111684880</v>
       </c>
       <c r="B46" t="n">
         <v>86223</v>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538418.4510020384</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R46" t="n">
-        <v>7007018.490022517</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684880</v>
+        <v>111684853</v>
       </c>
       <c r="B47" t="n">
-        <v>86223</v>
+        <v>96253</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5929,25 +5929,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4412</v>
+        <v>504</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538506.4196058889</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R47" t="n">
-        <v>7007072.359808625</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684892</v>
+        <v>111684838</v>
       </c>
       <c r="B48" t="n">
-        <v>96253</v>
+        <v>90682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6045,25 +6045,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>504</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538447.0264229371</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R48" t="n">
-        <v>7007048.627327502</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684853</v>
+        <v>111684865</v>
       </c>
       <c r="B49" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6161,25 +6161,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538429.6936389046</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R49" t="n">
-        <v>7007061.513751107</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684843</v>
+        <v>111684835</v>
       </c>
       <c r="B51" t="n">
-        <v>90332</v>
+        <v>85266</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6397,21 +6397,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>249228</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538471.1952294012</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R51" t="n">
-        <v>7007182.999663028</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6469,12 +6469,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6497,10 +6503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684854</v>
+        <v>111684866</v>
       </c>
       <c r="B52" t="n">
-        <v>96346</v>
+        <v>90678</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6509,25 +6515,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>620</v>
+        <v>4366</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6537,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538429.6936389046</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R52" t="n">
-        <v>7007061.513751107</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6613,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684869</v>
+        <v>111684843</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6625,25 +6631,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6653,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538403.0389924766</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R53" t="n">
-        <v>7007021.918571183</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6729,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684896</v>
+        <v>111684869</v>
       </c>
       <c r="B54" t="n">
-        <v>90710</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6745,21 +6751,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6769,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538349.3816246447</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R54" t="n">
-        <v>7007238.433779362</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6845,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684866</v>
+        <v>111684892</v>
       </c>
       <c r="B55" t="n">
-        <v>90678</v>
+        <v>96253</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6861,21 +6867,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4366</v>
+        <v>504</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6885,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538377.6302402292</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R55" t="n">
-        <v>7007067.666827729</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6961,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684835</v>
+        <v>111684878</v>
       </c>
       <c r="B56" t="n">
-        <v>85266</v>
+        <v>86223</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6973,25 +6979,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>249228</v>
+        <v>4412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7001,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538475.2310466716</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R56" t="n">
-        <v>7007185.7564558</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7049,18 +7055,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684896</v>
+        <v>111684854</v>
       </c>
       <c r="B44" t="n">
-        <v>90710</v>
+        <v>96346</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5449</v>
+        <v>620</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538349.3816246447</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R44" t="n">
-        <v>7007238.433779362</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684854</v>
+        <v>111684896</v>
       </c>
       <c r="B45" t="n">
-        <v>96346</v>
+        <v>90710</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5701,21 +5701,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>620</v>
+        <v>5449</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538429.6936389046</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R45" t="n">
-        <v>7007061.513751107</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613807</v>
+        <v>111613799</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3652,25 +3652,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3680,10 +3680,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538415.4553716886</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R28" t="n">
-        <v>7007080.306102326</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3728,11 +3728,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3741,21 +3736,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3776,10 +3756,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613842</v>
+        <v>111613814</v>
       </c>
       <c r="B29" t="n">
-        <v>5426</v>
+        <v>96253</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3788,47 +3768,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>101410</v>
+        <v>504</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538311.0181604966</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R29" t="n">
-        <v>7007195.090902855</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3879,7 +3850,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3902,10 +3872,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613812</v>
+        <v>111613835</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3914,38 +3884,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538523.1546874978</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R30" t="n">
-        <v>7007185.424751109</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3990,12 +3963,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4018,10 +3997,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613826</v>
+        <v>111613810</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4034,21 +4013,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4058,10 +4037,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538295.2090174844</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R31" t="n">
-        <v>7007117.704292206</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4114,21 +4093,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4149,10 +4113,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613810</v>
+        <v>111613842</v>
       </c>
       <c r="B32" t="n">
-        <v>77186</v>
+        <v>5426</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4165,34 +4129,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>101410</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538344.4096152738</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R32" t="n">
-        <v>7007238.37475112</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4243,6 +4216,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4265,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613795</v>
+        <v>111613807</v>
       </c>
       <c r="B33" t="n">
-        <v>78107</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4281,21 +4255,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4305,10 +4279,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538304.4087143966</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R33" t="n">
-        <v>7007256.860795334</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4353,6 +4327,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4361,6 +4340,21 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4381,10 +4375,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613809</v>
+        <v>111613820</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>98446</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4397,37 +4391,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>222771</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538305.3234170083</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R34" t="n">
-        <v>7007255.968756862</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4472,18 +4463,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4506,10 +4491,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613820</v>
+        <v>111613813</v>
       </c>
       <c r="B35" t="n">
-        <v>98446</v>
+        <v>96265</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4522,21 +4507,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222771</v>
+        <v>219790</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4546,10 +4531,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538560.8875660666</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R35" t="n">
-        <v>7007129.894231001</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4622,10 +4607,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613835</v>
+        <v>111613848</v>
       </c>
       <c r="B36" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4634,41 +4619,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538300.9455503088</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R36" t="n">
-        <v>7007205.806269458</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4713,18 +4695,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4747,10 +4723,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613814</v>
+        <v>111613779</v>
       </c>
       <c r="B37" t="n">
-        <v>96253</v>
+        <v>5426</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4759,38 +4735,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>504</v>
+        <v>101410</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538476.5867244676</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R37" t="n">
-        <v>7007147.850285683</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4841,6 +4826,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4979,10 +4965,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613798</v>
+        <v>111613812</v>
       </c>
       <c r="B39" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4991,25 +4977,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5019,10 +5005,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538561.8131536954</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R39" t="n">
-        <v>7007128.099433615</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5095,10 +5081,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613848</v>
+        <v>111613795</v>
       </c>
       <c r="B40" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5111,21 +5097,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5135,10 +5121,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538327.8784058518</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R40" t="n">
-        <v>7007221.926460785</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5211,10 +5197,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613779</v>
+        <v>111613798</v>
       </c>
       <c r="B41" t="n">
-        <v>5426</v>
+        <v>98446</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5223,47 +5209,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>101410</v>
+        <v>222771</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538391.4391364089</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R41" t="n">
-        <v>7007084.986719663</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5314,7 +5291,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5337,10 +5313,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613799</v>
+        <v>111613826</v>
       </c>
       <c r="B42" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5349,25 +5325,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5377,10 +5353,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538290.3007555312</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R42" t="n">
-        <v>7007188.524916076</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5433,6 +5409,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5453,10 +5444,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613813</v>
+        <v>111613809</v>
       </c>
       <c r="B43" t="n">
-        <v>96265</v>
+        <v>90666</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5469,34 +5460,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219790</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538476.5867244676</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R43" t="n">
-        <v>7007147.850285683</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5541,12 +5535,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684854</v>
+        <v>111684869</v>
       </c>
       <c r="B44" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538429.6936389046</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R44" t="n">
-        <v>7007061.513751107</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684896</v>
+        <v>111684854</v>
       </c>
       <c r="B45" t="n">
-        <v>90710</v>
+        <v>96346</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5701,21 +5701,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5449</v>
+        <v>620</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538349.3816246447</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R45" t="n">
-        <v>7007238.433779362</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684853</v>
+        <v>111684865</v>
       </c>
       <c r="B47" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5929,25 +5929,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538429.6936389046</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R47" t="n">
-        <v>7007061.513751107</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684838</v>
+        <v>111684878</v>
       </c>
       <c r="B48" t="n">
-        <v>90682</v>
+        <v>86223</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6049,21 +6049,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2059</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538320.8926943651</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R48" t="n">
-        <v>7007201.076903798</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684865</v>
+        <v>111684868</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6161,25 +6161,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538377.6302402292</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R49" t="n">
-        <v>7007067.666827729</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684868</v>
+        <v>111684892</v>
       </c>
       <c r="B50" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6281,21 +6281,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538403.0389924766</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R50" t="n">
-        <v>7007021.918571183</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684835</v>
+        <v>111684866</v>
       </c>
       <c r="B51" t="n">
-        <v>85266</v>
+        <v>90678</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6397,21 +6397,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>249228</v>
+        <v>4366</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538475.2310466716</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R51" t="n">
-        <v>7007185.7564558</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6469,18 +6469,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6503,10 +6497,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684866</v>
+        <v>111684835</v>
       </c>
       <c r="B52" t="n">
-        <v>90678</v>
+        <v>85266</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6519,21 +6513,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4366</v>
+        <v>249228</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6537,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538377.6302402292</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R52" t="n">
-        <v>7007067.666827729</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6591,12 +6585,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684843</v>
+        <v>111684853</v>
       </c>
       <c r="B53" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,21 +6635,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538471.1952294012</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R53" t="n">
-        <v>7007182.999663028</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684869</v>
+        <v>111684838</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>90682</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6751,21 +6751,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>2059</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538403.0389924766</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R54" t="n">
-        <v>7007021.918571183</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684892</v>
+        <v>111684896</v>
       </c>
       <c r="B55" t="n">
-        <v>96253</v>
+        <v>90710</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6863,25 +6863,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>504</v>
+        <v>5449</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538447.0264229371</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R55" t="n">
-        <v>7007048.627327502</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684878</v>
+        <v>111684843</v>
       </c>
       <c r="B56" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6979,25 +6979,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538418.4510020384</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R56" t="n">
-        <v>7007018.490022517</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,7 +3524,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613808</v>
+        <v>111613807</v>
       </c>
       <c r="B27" t="n">
         <v>78578</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538307.035750575</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R27" t="n">
-        <v>7007187.820436972</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3612,6 +3612,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3620,6 +3625,21 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3756,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613814</v>
+        <v>111613801</v>
       </c>
       <c r="B29" t="n">
-        <v>96253</v>
+        <v>96265</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3772,21 +3792,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>504</v>
+        <v>219790</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3796,10 +3816,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538476.5867244676</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R29" t="n">
-        <v>7007147.850285683</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3872,10 +3892,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613835</v>
+        <v>111613795</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3884,41 +3904,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538300.9455503088</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R30" t="n">
-        <v>7007205.806269458</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3963,18 +3980,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3997,10 +4008,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613810</v>
+        <v>111613808</v>
       </c>
       <c r="B31" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4013,21 +4024,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4037,10 +4048,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538344.4096152738</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R31" t="n">
-        <v>7007238.37475112</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4113,10 +4124,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613842</v>
+        <v>111613820</v>
       </c>
       <c r="B32" t="n">
-        <v>5426</v>
+        <v>98446</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4125,47 +4136,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>101410</v>
+        <v>222771</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538311.0181604966</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R32" t="n">
-        <v>7007195.090902855</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4216,7 +4218,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4239,10 +4240,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613807</v>
+        <v>111613813</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4251,25 +4252,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4279,10 +4280,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538415.4553716886</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R33" t="n">
-        <v>7007080.306102326</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4327,11 +4328,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4340,21 +4336,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4375,10 +4356,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613820</v>
+        <v>111613779</v>
       </c>
       <c r="B34" t="n">
-        <v>98446</v>
+        <v>5426</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4387,38 +4368,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222771</v>
+        <v>101410</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538560.8875660666</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R34" t="n">
-        <v>7007129.894231001</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4469,6 +4459,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4491,10 +4482,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613813</v>
+        <v>111613810</v>
       </c>
       <c r="B35" t="n">
-        <v>96265</v>
+        <v>77186</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4503,25 +4494,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219790</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4531,10 +4522,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538476.5867244676</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R35" t="n">
-        <v>7007147.850285683</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4723,10 +4714,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613779</v>
+        <v>111613826</v>
       </c>
       <c r="B37" t="n">
-        <v>5426</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4739,43 +4730,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>101410</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538391.4391364089</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R37" t="n">
-        <v>7007084.986719663</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4826,9 +4808,23 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4849,10 +4845,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613801</v>
+        <v>111613798</v>
       </c>
       <c r="B38" t="n">
-        <v>96265</v>
+        <v>98446</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4865,21 +4861,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219790</v>
+        <v>222771</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4889,10 +4885,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538267.3285722481</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R38" t="n">
-        <v>7007181.480884125</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5081,10 +5077,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613795</v>
+        <v>111613809</v>
       </c>
       <c r="B40" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5093,38 +5089,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538304.4087143966</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R40" t="n">
-        <v>7007256.860795334</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5169,12 +5168,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5197,10 +5202,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613798</v>
+        <v>111613842</v>
       </c>
       <c r="B41" t="n">
-        <v>98446</v>
+        <v>5426</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5209,38 +5214,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222771</v>
+        <v>101410</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538561.8131536954</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R41" t="n">
-        <v>7007128.099433615</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5291,6 +5305,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5313,10 +5328,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613826</v>
+        <v>111613835</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5325,38 +5340,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538295.2090174844</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R42" t="n">
-        <v>7007117.704292206</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5401,29 +5419,20 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5444,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613809</v>
+        <v>111613814</v>
       </c>
       <c r="B43" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5460,37 +5469,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538305.3234170083</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R43" t="n">
-        <v>7007255.968756862</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5535,18 +5541,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684869</v>
+        <v>111684865</v>
       </c>
       <c r="B44" t="n">
         <v>78578</v>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538403.0389924766</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R44" t="n">
-        <v>7007021.918571183</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684854</v>
+        <v>111684866</v>
       </c>
       <c r="B45" t="n">
-        <v>96346</v>
+        <v>90678</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>620</v>
+        <v>4366</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538429.6936389046</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R45" t="n">
-        <v>7007061.513751107</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684880</v>
+        <v>111684896</v>
       </c>
       <c r="B46" t="n">
-        <v>86223</v>
+        <v>90710</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538506.4196058889</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R46" t="n">
-        <v>7007072.359808625</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684865</v>
+        <v>111684880</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>86223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5933,21 +5933,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538377.6302402292</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R47" t="n">
-        <v>7007067.666827729</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684878</v>
+        <v>111684869</v>
       </c>
       <c r="B48" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6049,21 +6049,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538418.4510020384</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R48" t="n">
-        <v>7007018.490022517</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684868</v>
+        <v>111684854</v>
       </c>
       <c r="B49" t="n">
-        <v>90666</v>
+        <v>96346</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6161,25 +6161,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4364</v>
+        <v>620</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538403.0389924766</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R49" t="n">
-        <v>7007021.918571183</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684866</v>
+        <v>111684835</v>
       </c>
       <c r="B51" t="n">
-        <v>90678</v>
+        <v>85266</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6397,21 +6397,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4366</v>
+        <v>249228</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538377.6302402292</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R51" t="n">
-        <v>7007067.666827729</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6469,12 +6469,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6497,10 +6503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684835</v>
+        <v>111684843</v>
       </c>
       <c r="B52" t="n">
-        <v>85266</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6513,21 +6519,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>249228</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6537,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538475.2310466716</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R52" t="n">
-        <v>7007185.7564558</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6585,18 +6591,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684853</v>
+        <v>111684868</v>
       </c>
       <c r="B53" t="n">
-        <v>96253</v>
+        <v>90666</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,21 +6635,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>504</v>
+        <v>4364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538429.6936389046</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R53" t="n">
-        <v>7007061.513751107</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684896</v>
+        <v>111684878</v>
       </c>
       <c r="B55" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6867,21 +6867,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538349.3816246447</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R55" t="n">
-        <v>7007238.433779362</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684843</v>
+        <v>111684853</v>
       </c>
       <c r="B56" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6983,21 +6983,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538471.1952294012</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R56" t="n">
-        <v>7007182.999663028</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613807</v>
+        <v>111613801</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3536,25 +3536,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538415.4553716886</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R27" t="n">
-        <v>7007080.306102326</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3612,11 +3612,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>På grov sälg</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3625,21 +3620,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3660,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111613799</v>
+        <v>111613807</v>
       </c>
       <c r="B28" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3672,25 +3652,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3700,10 +3680,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>538290.3007555312</v>
+        <v>538415.4553716886</v>
       </c>
       <c r="R28" t="n">
-        <v>7007188.524916076</v>
+        <v>7007080.306102326</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3748,6 +3728,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På grov sälg</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3756,6 +3741,21 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3776,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613801</v>
+        <v>111613813</v>
       </c>
       <c r="B29" t="n">
         <v>96265</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538267.3285722481</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R29" t="n">
-        <v>7007181.480884125</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613795</v>
+        <v>111613812</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3904,25 +3904,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3932,10 +3932,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538304.4087143966</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R30" t="n">
-        <v>7007256.860795334</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613808</v>
+        <v>111613810</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4024,21 +4024,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4048,10 +4048,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538307.035750575</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R31" t="n">
-        <v>7007187.820436972</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613820</v>
+        <v>111613842</v>
       </c>
       <c r="B32" t="n">
-        <v>98446</v>
+        <v>5426</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4136,38 +4136,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222771</v>
+        <v>101410</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538560.8875660666</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R32" t="n">
-        <v>7007129.894231001</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4218,6 +4227,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4240,10 +4250,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613813</v>
+        <v>111613795</v>
       </c>
       <c r="B33" t="n">
-        <v>96265</v>
+        <v>78107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4252,25 +4262,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219790</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4280,10 +4290,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538476.5867244676</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R33" t="n">
-        <v>7007147.850285683</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4356,10 +4366,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613779</v>
+        <v>111613848</v>
       </c>
       <c r="B34" t="n">
-        <v>5426</v>
+        <v>78081</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4372,43 +4382,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>101410</v>
+        <v>229821</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538391.4391364089</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R34" t="n">
-        <v>7007084.986719663</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4459,7 +4460,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613810</v>
+        <v>111613814</v>
       </c>
       <c r="B35" t="n">
-        <v>77186</v>
+        <v>96253</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4494,25 +4494,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>504</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538344.4096152738</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R35" t="n">
-        <v>7007238.37475112</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613848</v>
+        <v>111613779</v>
       </c>
       <c r="B36" t="n">
-        <v>78081</v>
+        <v>5426</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4614,34 +4614,43 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>229821</v>
+        <v>101410</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538327.8784058518</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R36" t="n">
-        <v>7007221.926460785</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4692,6 +4701,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4845,7 +4855,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613798</v>
+        <v>111613820</v>
       </c>
       <c r="B38" t="n">
         <v>98446</v>
@@ -4885,10 +4895,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538561.8131536954</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R38" t="n">
-        <v>7007128.099433615</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4961,10 +4971,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613812</v>
+        <v>111613835</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4973,38 +4983,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538523.1546874978</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R39" t="n">
-        <v>7007185.424751109</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5049,12 +5062,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5202,10 +5221,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613842</v>
+        <v>111613799</v>
       </c>
       <c r="B41" t="n">
-        <v>5426</v>
+        <v>98446</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5214,47 +5233,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>101410</v>
+        <v>222771</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538311.0181604966</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R41" t="n">
-        <v>7007195.090902855</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5305,7 +5315,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5328,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613835</v>
+        <v>111613798</v>
       </c>
       <c r="B42" t="n">
-        <v>90666</v>
+        <v>98446</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5344,37 +5353,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>222771</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538300.9455503088</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R42" t="n">
-        <v>7007205.806269458</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5419,18 +5425,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613814</v>
+        <v>111613808</v>
       </c>
       <c r="B43" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5465,25 +5465,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538476.5867244676</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R43" t="n">
-        <v>7007147.850285683</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684866</v>
+        <v>111684835</v>
       </c>
       <c r="B45" t="n">
-        <v>90678</v>
+        <v>85266</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5701,21 +5701,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4366</v>
+        <v>249228</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538377.6302402292</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R45" t="n">
-        <v>7007067.666827729</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5773,12 +5773,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5801,10 +5807,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684896</v>
+        <v>111684866</v>
       </c>
       <c r="B46" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5813,25 +5819,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5847,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538349.3816246447</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R46" t="n">
-        <v>7007238.433779362</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5917,10 +5923,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684880</v>
+        <v>111684838</v>
       </c>
       <c r="B47" t="n">
-        <v>86223</v>
+        <v>90682</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5933,21 +5939,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4412</v>
+        <v>2059</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5963,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538506.4196058889</v>
+        <v>538320.8926943651</v>
       </c>
       <c r="R47" t="n">
-        <v>7007072.359808625</v>
+        <v>7007201.076903798</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6033,10 +6039,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684869</v>
+        <v>111684880</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>86223</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6049,21 +6055,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6079,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538403.0389924766</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R48" t="n">
-        <v>7007021.918571183</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6149,10 +6155,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684854</v>
+        <v>111684892</v>
       </c>
       <c r="B49" t="n">
-        <v>96346</v>
+        <v>96253</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6161,25 +6167,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>620</v>
+        <v>504</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6195,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538429.6936389046</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R49" t="n">
-        <v>7007061.513751107</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6265,10 +6271,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684892</v>
+        <v>111684854</v>
       </c>
       <c r="B50" t="n">
-        <v>96253</v>
+        <v>96346</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6277,25 +6283,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>504</v>
+        <v>620</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6305,10 +6311,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538447.0264229371</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R50" t="n">
-        <v>7007048.627327502</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6381,10 +6387,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684835</v>
+        <v>111684896</v>
       </c>
       <c r="B51" t="n">
-        <v>85266</v>
+        <v>90710</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6393,25 +6399,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>249228</v>
+        <v>5449</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6421,10 +6427,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538475.2310466716</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R51" t="n">
-        <v>7007185.7564558</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6469,18 +6475,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684843</v>
+        <v>111684869</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538471.1952294012</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R52" t="n">
-        <v>7007182.999663028</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684868</v>
+        <v>111684878</v>
       </c>
       <c r="B53" t="n">
-        <v>90666</v>
+        <v>86223</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6631,25 +6631,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538403.0389924766</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R53" t="n">
-        <v>7007021.918571183</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684838</v>
+        <v>111684843</v>
       </c>
       <c r="B54" t="n">
-        <v>90682</v>
+        <v>90332</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6747,25 +6747,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2059</v>
+        <v>4769</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538320.8926943651</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R54" t="n">
-        <v>7007201.076903798</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684878</v>
+        <v>111684853</v>
       </c>
       <c r="B55" t="n">
-        <v>86223</v>
+        <v>96253</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6863,25 +6863,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4412</v>
+        <v>504</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538418.4510020384</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R55" t="n">
-        <v>7007018.490022517</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684853</v>
+        <v>111684868</v>
       </c>
       <c r="B56" t="n">
-        <v>96253</v>
+        <v>90666</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6983,21 +6983,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>504</v>
+        <v>4364</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538429.6936389046</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R56" t="n">
-        <v>7007061.513751107</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -6735,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684843</v>
+        <v>111684853</v>
       </c>
       <c r="B54" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6751,21 +6751,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538471.1952294012</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R54" t="n">
-        <v>7007182.999663028</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684853</v>
+        <v>111684843</v>
       </c>
       <c r="B55" t="n">
-        <v>96253</v>
+        <v>90332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6867,21 +6867,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>504</v>
+        <v>4769</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538429.6936389046</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R55" t="n">
-        <v>7007061.513751107</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3524,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111613801</v>
+        <v>111613848</v>
       </c>
       <c r="B27" t="n">
-        <v>96265</v>
+        <v>78081</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3536,25 +3536,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219790</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>538267.3285722481</v>
+        <v>538327.8784058518</v>
       </c>
       <c r="R27" t="n">
-        <v>7007181.480884125</v>
+        <v>7007221.926460785</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613813</v>
+        <v>111613795</v>
       </c>
       <c r="B29" t="n">
-        <v>96265</v>
+        <v>78107</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3788,25 +3788,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219790</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538476.5867244676</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R29" t="n">
-        <v>7007147.850285683</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613810</v>
+        <v>111613826</v>
       </c>
       <c r="B31" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4024,21 +4024,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4048,10 +4048,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538344.4096152738</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R31" t="n">
-        <v>7007238.37475112</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4104,6 +4104,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4124,10 +4139,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111613842</v>
+        <v>111613801</v>
       </c>
       <c r="B32" t="n">
-        <v>5426</v>
+        <v>96265</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4136,47 +4151,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>101410</v>
+        <v>219790</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>538311.0181604966</v>
+        <v>538267.3285722481</v>
       </c>
       <c r="R32" t="n">
-        <v>7007195.090902855</v>
+        <v>7007181.480884125</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4227,7 +4233,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4250,10 +4255,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111613795</v>
+        <v>111613809</v>
       </c>
       <c r="B33" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4262,38 +4267,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>538304.4087143966</v>
+        <v>538305.3234170083</v>
       </c>
       <c r="R33" t="n">
-        <v>7007256.860795334</v>
+        <v>7007255.968756862</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4338,12 +4346,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4366,10 +4380,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613848</v>
+        <v>111613835</v>
       </c>
       <c r="B34" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4378,38 +4392,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538327.8784058518</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R34" t="n">
-        <v>7007221.926460785</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4454,12 +4471,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4482,10 +4505,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613814</v>
+        <v>111613808</v>
       </c>
       <c r="B35" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4494,25 +4517,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4522,10 +4545,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538476.5867244676</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R35" t="n">
-        <v>7007147.850285683</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4598,10 +4621,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613779</v>
+        <v>111613813</v>
       </c>
       <c r="B36" t="n">
-        <v>5426</v>
+        <v>96265</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4610,47 +4633,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>101410</v>
+        <v>219790</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538391.4391364089</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R36" t="n">
-        <v>7007084.986719663</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4701,7 +4715,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4724,10 +4737,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111613826</v>
+        <v>111613810</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4740,21 +4753,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4764,10 +4777,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>538295.2090174844</v>
+        <v>538344.4096152738</v>
       </c>
       <c r="R37" t="n">
-        <v>7007117.704292206</v>
+        <v>7007238.37475112</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4820,21 +4833,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4855,7 +4853,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111613820</v>
+        <v>111613798</v>
       </c>
       <c r="B38" t="n">
         <v>98446</v>
@@ -4895,10 +4893,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>538560.8875660666</v>
+        <v>538561.8131536954</v>
       </c>
       <c r="R38" t="n">
-        <v>7007129.894231001</v>
+        <v>7007128.099433615</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4971,10 +4969,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111613835</v>
+        <v>111613820</v>
       </c>
       <c r="B39" t="n">
-        <v>90666</v>
+        <v>98446</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4987,37 +4985,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>222771</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>538300.9455503088</v>
+        <v>538560.8875660666</v>
       </c>
       <c r="R39" t="n">
-        <v>7007205.806269458</v>
+        <v>7007129.894231001</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5062,18 +5057,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5096,10 +5085,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111613809</v>
+        <v>111613814</v>
       </c>
       <c r="B40" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5112,37 +5101,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>538305.3234170083</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R40" t="n">
-        <v>7007255.968756862</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5187,18 +5173,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5221,10 +5201,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111613799</v>
+        <v>111613779</v>
       </c>
       <c r="B41" t="n">
-        <v>98446</v>
+        <v>5426</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5233,38 +5213,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222771</v>
+        <v>101410</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>538290.3007555312</v>
+        <v>538391.4391364089</v>
       </c>
       <c r="R41" t="n">
-        <v>7007188.524916076</v>
+        <v>7007084.986719663</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5315,6 +5304,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5337,10 +5327,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111613798</v>
+        <v>111613842</v>
       </c>
       <c r="B42" t="n">
-        <v>98446</v>
+        <v>5426</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5349,38 +5339,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222771</v>
+        <v>101410</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>538561.8131536954</v>
+        <v>538311.0181604966</v>
       </c>
       <c r="R42" t="n">
-        <v>7007128.099433615</v>
+        <v>7007195.090902855</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5431,6 +5430,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111613808</v>
+        <v>111613799</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5465,25 +5465,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>538307.035750575</v>
+        <v>538290.3007555312</v>
       </c>
       <c r="R43" t="n">
-        <v>7007187.820436972</v>
+        <v>7007188.524916076</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684865</v>
+        <v>111684896</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>90710</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>5449</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538377.6302402292</v>
+        <v>538349.3816246447</v>
       </c>
       <c r="R44" t="n">
-        <v>7007067.666827729</v>
+        <v>7007238.433779362</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684835</v>
+        <v>111684865</v>
       </c>
       <c r="B45" t="n">
-        <v>85266</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>249228</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538475.2310466716</v>
+        <v>538377.6302402292</v>
       </c>
       <c r="R45" t="n">
-        <v>7007185.7564558</v>
+        <v>7007067.666827729</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5773,18 +5773,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6039,10 +6033,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684880</v>
+        <v>111684869</v>
       </c>
       <c r="B48" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6055,21 +6049,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6079,10 +6073,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538506.4196058889</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R48" t="n">
-        <v>7007072.359808625</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6155,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684892</v>
+        <v>111684854</v>
       </c>
       <c r="B49" t="n">
-        <v>96253</v>
+        <v>96346</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6167,25 +6161,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>504</v>
+        <v>620</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6195,10 +6189,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538447.0264229371</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R49" t="n">
-        <v>7007048.627327502</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6271,10 +6265,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684854</v>
+        <v>111684835</v>
       </c>
       <c r="B50" t="n">
-        <v>96346</v>
+        <v>85266</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6283,25 +6277,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>620</v>
+        <v>249228</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6311,10 +6305,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538429.6936389046</v>
+        <v>538475.2310466716</v>
       </c>
       <c r="R50" t="n">
-        <v>7007061.513751107</v>
+        <v>7007185.7564558</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6359,12 +6353,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111684896</v>
+        <v>111684868</v>
       </c>
       <c r="B51" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6399,25 +6399,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538349.3816246447</v>
+        <v>538403.0389924766</v>
       </c>
       <c r="R51" t="n">
-        <v>7007238.433779362</v>
+        <v>7007021.918571183</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684869</v>
+        <v>111684853</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>96253</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>504</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538403.0389924766</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R52" t="n">
-        <v>7007021.918571183</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684878</v>
+        <v>111684843</v>
       </c>
       <c r="B53" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6631,25 +6631,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538418.4510020384</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R53" t="n">
-        <v>7007018.490022517</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684853</v>
+        <v>111684880</v>
       </c>
       <c r="B54" t="n">
-        <v>96253</v>
+        <v>86223</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6747,25 +6747,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>504</v>
+        <v>4412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538429.6936389046</v>
+        <v>538506.4196058889</v>
       </c>
       <c r="R54" t="n">
-        <v>7007061.513751107</v>
+        <v>7007072.359808625</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684843</v>
+        <v>111684878</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6863,25 +6863,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538471.1952294012</v>
+        <v>538418.4510020384</v>
       </c>
       <c r="R55" t="n">
-        <v>7007182.999663028</v>
+        <v>7007018.490022517</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684868</v>
+        <v>111684892</v>
       </c>
       <c r="B56" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6983,21 +6983,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538403.0389924766</v>
+        <v>538447.0264229371</v>
       </c>
       <c r="R56" t="n">
-        <v>7007021.918571183</v>
+        <v>7007048.627327502</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -3776,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111613795</v>
+        <v>111613826</v>
       </c>
       <c r="B29" t="n">
-        <v>78107</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3792,21 +3792,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>538304.4087143966</v>
+        <v>538295.2090174844</v>
       </c>
       <c r="R29" t="n">
-        <v>7007256.860795334</v>
+        <v>7007117.704292206</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3872,6 +3872,21 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3892,10 +3907,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111613812</v>
+        <v>111613795</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3904,25 +3919,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3932,10 +3947,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>538523.1546874978</v>
+        <v>538304.4087143966</v>
       </c>
       <c r="R30" t="n">
-        <v>7007185.424751109</v>
+        <v>7007256.860795334</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4008,10 +4023,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111613826</v>
+        <v>111613812</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4020,25 +4035,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4048,10 +4063,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>538295.2090174844</v>
+        <v>538523.1546874978</v>
       </c>
       <c r="R31" t="n">
-        <v>7007117.704292206</v>
+        <v>7007185.424751109</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4104,21 +4119,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4380,10 +4380,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111613835</v>
+        <v>111613813</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>96265</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4396,37 +4396,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>219790</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>538300.9455503088</v>
+        <v>538476.5867244676</v>
       </c>
       <c r="R34" t="n">
-        <v>7007205.806269458</v>
+        <v>7007147.850285683</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4471,18 +4468,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Fruktkroppar från förra året.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4505,10 +4496,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111613808</v>
+        <v>111613835</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4517,38 +4508,41 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Krycktjärnbordarna väst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>538307.035750575</v>
+        <v>538300.9455503088</v>
       </c>
       <c r="R35" t="n">
-        <v>7007187.820436972</v>
+        <v>7007205.806269458</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4593,12 +4587,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Fruktkroppar från förra året.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111613813</v>
+        <v>111613808</v>
       </c>
       <c r="B36" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4633,25 +4633,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>538476.5867244676</v>
+        <v>538307.035750575</v>
       </c>
       <c r="R36" t="n">
-        <v>7007147.850285683</v>
+        <v>7007187.820436972</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684853</v>
+        <v>111684843</v>
       </c>
       <c r="B52" t="n">
-        <v>96253</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6519,21 +6519,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>504</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538429.6936389046</v>
+        <v>538471.1952294012</v>
       </c>
       <c r="R52" t="n">
-        <v>7007061.513751107</v>
+        <v>7007182.999663028</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684843</v>
+        <v>111684853</v>
       </c>
       <c r="B53" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,21 +6635,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538471.1952294012</v>
+        <v>538429.6936389046</v>
       </c>
       <c r="R53" t="n">
-        <v>7007182.999663028</v>
+        <v>7007061.513751107</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 52744-2022.xlsx
+++ b/artfynd/A 52744-2022.xlsx
@@ -5569,10 +5569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111684896</v>
+        <v>111684838</v>
       </c>
       <c r="B44" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5585,21 +5585,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>538349.3816246447</v>
+        <v>538321</v>
       </c>
       <c r="R44" t="n">
-        <v>7007238.433779362</v>
+        <v>7007201</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5642,19 +5642,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5685,10 +5675,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111684865</v>
+        <v>111684866</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>90678</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5697,25 +5687,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>4366</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5725,10 +5715,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>538377.6302402292</v>
+        <v>538378</v>
       </c>
       <c r="R45" t="n">
-        <v>7007067.666827729</v>
+        <v>7007068</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5758,19 +5748,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5801,10 +5781,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111684866</v>
+        <v>111684869</v>
       </c>
       <c r="B46" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5813,25 +5793,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5841,10 +5821,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>538377.6302402292</v>
+        <v>538403</v>
       </c>
       <c r="R46" t="n">
-        <v>7007067.666827729</v>
+        <v>7007022</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5874,19 +5854,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5917,10 +5887,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111684838</v>
+        <v>111684854</v>
       </c>
       <c r="B47" t="n">
-        <v>90682</v>
+        <v>96346</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5933,21 +5903,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2059</v>
+        <v>620</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5957,10 +5927,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>538320.8926943651</v>
+        <v>538430</v>
       </c>
       <c r="R47" t="n">
-        <v>7007201.076903798</v>
+        <v>7007062</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5990,19 +5960,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6033,10 +5993,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111684869</v>
+        <v>111684835</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>85266</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6045,25 +6005,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>249228</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6073,10 +6033,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>538403.0389924766</v>
+        <v>538475</v>
       </c>
       <c r="R48" t="n">
-        <v>7007021.918571183</v>
+        <v>7007186</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6106,19 +6066,14 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6127,6 +6082,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6149,10 +6105,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111684854</v>
+        <v>111684843</v>
       </c>
       <c r="B49" t="n">
-        <v>96346</v>
+        <v>90332</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6161,25 +6117,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>620</v>
+        <v>4769</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6189,10 +6145,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>538429.6936389046</v>
+        <v>538471</v>
       </c>
       <c r="R49" t="n">
-        <v>7007061.513751107</v>
+        <v>7007183</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6222,19 +6178,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6265,10 +6211,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111684835</v>
+        <v>111684853</v>
       </c>
       <c r="B50" t="n">
-        <v>85266</v>
+        <v>96253</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6281,21 +6227,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>249228</v>
+        <v>504</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6305,10 +6251,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>538475.2310466716</v>
+        <v>538430</v>
       </c>
       <c r="R50" t="n">
-        <v>7007185.7564558</v>
+        <v>7007062</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6338,33 +6284,17 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Både gran och tall. Gul hatt med blek kant. Mörka velumfläckar i mitten. Gulaktig på foten. Ingen reaktion KOH på hatten. På foten ingen eller mörkbrun.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6427,10 +6357,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>538403.0389924766</v>
+        <v>538403</v>
       </c>
       <c r="R51" t="n">
-        <v>7007021.918571183</v>
+        <v>7007022</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6460,19 +6390,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6503,10 +6423,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111684843</v>
+        <v>111684865</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6515,25 +6435,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6543,10 +6463,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>538471.1952294012</v>
+        <v>538378</v>
       </c>
       <c r="R52" t="n">
-        <v>7007182.999663028</v>
+        <v>7007068</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6576,19 +6496,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6619,10 +6529,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111684853</v>
+        <v>111684880</v>
       </c>
       <c r="B53" t="n">
-        <v>96253</v>
+        <v>86223</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6631,25 +6541,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>504</v>
+        <v>4412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6659,10 +6569,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>538429.6936389046</v>
+        <v>538506</v>
       </c>
       <c r="R53" t="n">
-        <v>7007061.513751107</v>
+        <v>7007072</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6692,19 +6602,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6735,7 +6635,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111684880</v>
+        <v>111684878</v>
       </c>
       <c r="B54" t="n">
         <v>86223</v>
@@ -6775,10 +6675,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>538506.4196058889</v>
+        <v>538418</v>
       </c>
       <c r="R54" t="n">
-        <v>7007072.359808625</v>
+        <v>7007018</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6808,19 +6708,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6851,10 +6741,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111684878</v>
+        <v>111684892</v>
       </c>
       <c r="B55" t="n">
-        <v>86223</v>
+        <v>96253</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6863,25 +6753,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4412</v>
+        <v>504</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6891,10 +6781,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>538418.4510020384</v>
+        <v>538447</v>
       </c>
       <c r="R55" t="n">
-        <v>7007018.490022517</v>
+        <v>7007049</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6924,19 +6814,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6967,10 +6847,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111684892</v>
+        <v>111684896</v>
       </c>
       <c r="B56" t="n">
-        <v>96253</v>
+        <v>90710</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6979,25 +6859,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>504</v>
+        <v>5449</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7007,10 +6887,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>538447.0264229371</v>
+        <v>538349</v>
       </c>
       <c r="R56" t="n">
-        <v>7007048.627327502</v>
+        <v>7007238</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7040,19 +6920,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7126,10 +6996,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>538472.0777413965</v>
+        <v>538472</v>
       </c>
       <c r="R57" t="n">
-        <v>7007184.815989264</v>
+        <v>7007185</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7159,19 +7029,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
